--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,73 +22,109 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>519029</t>
+  </si>
+  <si>
+    <t>630008</t>
+  </si>
+  <si>
     <t>000592</t>
   </si>
   <si>
-    <t>630008</t>
+    <t>690003</t>
   </si>
   <si>
     <t>005457</t>
   </si>
   <si>
-    <t>519029</t>
-  </si>
-  <si>
-    <t>690003</t>
+    <t>华夏稳增混合</t>
+  </si>
+  <si>
+    <t>华商策略精选混合</t>
   </si>
   <si>
     <t>建信改革红利股票</t>
   </si>
   <si>
-    <t>华商策略精选混合</t>
+    <t>民生加银精选混合</t>
   </si>
   <si>
     <t>景顺长城量化小盘股票</t>
   </si>
   <si>
-    <t>华夏稳增混合</t>
-  </si>
-  <si>
-    <t>民生加银精选混合</t>
+    <t>14.22</t>
+  </si>
+  <si>
+    <t>8.28</t>
+  </si>
+  <si>
+    <t>7.47</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>93.95</t>
+  </si>
+  <si>
+    <t>79.72</t>
   </si>
   <si>
     <t>94.52</t>
   </si>
   <si>
-    <t>79.72</t>
+    <t>94.14</t>
   </si>
   <si>
     <t>93.66</t>
   </si>
   <si>
-    <t>93.95</t>
-  </si>
-  <si>
-    <t>94.14</t>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>3.26</t>
   </si>
   <si>
     <t>2.64</t>
   </si>
   <si>
-    <t>3.26</t>
+    <t>5.23</t>
   </si>
   <si>
     <t>1.89</t>
   </si>
   <si>
-    <t>6.17</t>
-  </si>
-  <si>
-    <t>5.23</t>
+    <t>0.8774</t>
+  </si>
+  <si>
+    <t>0.2699</t>
+  </si>
+  <si>
+    <t>0.1972</t>
+  </si>
+  <si>
+    <t>0.0507</t>
+  </si>
+  <si>
+    <t>0.0263</t>
   </si>
 </sst>
 </file>
@@ -446,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,105 +504,141 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -1,162 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519029</t>
-  </si>
-  <si>
-    <t>630008</t>
-  </si>
-  <si>
-    <t>000592</t>
-  </si>
-  <si>
-    <t>690003</t>
-  </si>
-  <si>
-    <t>005457</t>
-  </si>
-  <si>
-    <t>华夏稳增混合</t>
-  </si>
-  <si>
-    <t>华商策略精选混合</t>
-  </si>
-  <si>
-    <t>建信改革红利股票</t>
-  </si>
-  <si>
-    <t>民生加银精选混合</t>
-  </si>
-  <si>
-    <t>景顺长城量化小盘股票</t>
-  </si>
-  <si>
-    <t>14.22</t>
-  </si>
-  <si>
-    <t>8.28</t>
-  </si>
-  <si>
-    <t>7.47</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>93.95</t>
-  </si>
-  <si>
-    <t>79.72</t>
-  </si>
-  <si>
-    <t>94.52</t>
-  </si>
-  <si>
-    <t>94.14</t>
-  </si>
-  <si>
-    <t>93.66</t>
-  </si>
-  <si>
-    <t>6.17</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>5.23</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>0.8774</t>
-  </si>
-  <si>
-    <t>0.2699</t>
-  </si>
-  <si>
-    <t>0.1972</t>
-  </si>
-  <si>
-    <t>0.0507</t>
-  </si>
-  <si>
-    <t>0.0263</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,167 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,1046 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5985</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1864,4 +1865,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1873,7 +1874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1884,17 +1885,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1904,14 +1925,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.2</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1920,14 +1963,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.24</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1936,13 +2001,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9942</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8737</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7370</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2310,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,17 +2322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2341,14 +2362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.55</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2357,14 +2400,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.2</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2373,14 +2438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.24</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7836</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2389,13 +2476,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2633,7 +2634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2644,17 +2645,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2664,14 +2685,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.86</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2680,14 +2723,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.55</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2696,14 +2761,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.2</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2712,14 +2799,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="6">
@@ -2728,13 +2937,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏稳增混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8774</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2699</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000592</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信改革红利股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1972</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>690003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>民生加银精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0507</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005457</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>125.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>88.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2422</t>
+          <t>6.0684</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -791,36 +677,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>88.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>4.7679</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501203</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达创新未来18个月封闭运作混合A</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.32</t>
+          <t>133.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6103</t>
+          <t>7.6220</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -923,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009341</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达均衡成长股票</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3550</t>
+          <t>4.9822</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110029</t>
+          <t>501203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达科讯混合</t>
+          <t>易方达创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.31</t>
+          <t>76.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.08</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2128</t>
+          <t>1.7836</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -999,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110013</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达科翔混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>55.74</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.88</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4938</t>
+          <t>0.9594</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1037,36 +999,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>900100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中信卓越成长两年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31.71</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9513</t>
+          <t>0.3959</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1075,36 +1037,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001018</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达新经济灵活配置混合</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31.07</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8451</t>
+          <t>0.1138</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1113,756 +1075,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006533</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达科融混合</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.83</t>
+          <t>87.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5985</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519110</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3094</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519170</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3027</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006642</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2642</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011815</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>恒越优势精选混合型发起式证券投资基金</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2511</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012098</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏成长机会一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2475</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005904</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1757</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>74.55</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1069</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004734</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧瑾灵灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007586</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰保兴多策略三个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1007</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519113</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浦银安盛精致生活混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0948</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519120</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0843</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004735</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中欧瑾灵灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>27.62</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>519115</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>浦银安盛红利精选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.33</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519175</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>浦银安盛经济带崛起灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005905</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>159846</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>建信中证1000交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008893</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信鑫利混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>27.74</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008894</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>创金合信鑫利混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>27.74</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>960031</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合H</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,7 +1575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2363,36 +1605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>501203</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>易方达创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>133.02</t>
+          <t>96.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.6220</t>
+          <t>2.6103</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2401,36 +1643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>009341</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>易方达均衡成长股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>87.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.9822</t>
+          <t>2.3550</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2439,36 +1681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501203</t>
+          <t>110029</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达创新未来18个月封闭运作混合A</t>
+          <t>易方达科讯混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.88</t>
+          <t>42.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>85.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7836</t>
+          <t>2.2128</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2477,36 +1719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>110013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>易方达科翔混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>55.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>84.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9594</t>
+          <t>1.4938</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2515,36 +1757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>900100</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合C</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>31.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>80.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3959</t>
+          <t>0.9513</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2553,36 +1795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>001018</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>易方达新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>31.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>83.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1138</t>
+          <t>0.8451</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2591,36 +1833,756 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>006533</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>易方达科融混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.28</t>
+          <t>85.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.5985</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,7 +2617,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2685,36 +2647,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>240004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>华宝动力组合混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>125.90</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.57</t>
+          <t>69.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0684</t>
+          <t>0.2422</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2723,112 +2685,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.92</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.57</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.7679</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8697</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>900100</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信卓越成长两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3822</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2842,128 +2728,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>12.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.86</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.42</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600711-盛屯矿业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>12.09</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>15.86</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>18.55</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>13.2</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>125.90</t>
+          <t>51.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.57</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0684</t>
+          <t>2.3020</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.92</t>
+          <t>115.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.57</t>
+          <t>88.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.7679</t>
+          <t>2.1628</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.96</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8697</t>
+          <t>0.6365</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -763,26 +780,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.57</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3822</t>
+          <t>0.2061</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -791,6 +808,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +1337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1548,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2590,7 +2815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2722,7 +2947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
